--- a/HW_SW_Vgl.xlsx
+++ b/HW_SW_Vgl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
   <si>
     <t>Nutzer</t>
   </si>
@@ -62,6 +62,12 @@
   <si>
     <t>Prozent</t>
   </si>
+  <si>
+    <t>T-Test 1S</t>
+  </si>
+  <si>
+    <t>T-Test 0.5s</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -258,11 +264,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -300,6 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1688,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1700,7 @@
       <c r="G49" s="32"/>
       <c r="H49" s="33"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>6</v>
       </c>
@@ -1692,7 +1714,7 @@
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
         <v>1</v>
       </c>
@@ -1710,7 +1732,7 @@
       </c>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>844618</v>
       </c>
@@ -1762,7 +1784,7 @@
         <v>314926</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>726387</v>
       </c>
@@ -1788,7 +1810,7 @@
         <v>183867</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>543830</v>
       </c>
@@ -1814,7 +1836,7 @@
         <v>634536</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>575573</v>
       </c>
@@ -1839,8 +1861,19 @@
       <c r="H56" s="19">
         <v>194566</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L56" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O56" s="37"/>
+      <c r="Q56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>107815</v>
       </c>
@@ -1865,8 +1898,26 @@
       <c r="H57" s="21">
         <v>814557</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L57" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="37">
+        <v>0</v>
+      </c>
+      <c r="R57" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>942685</v>
       </c>
@@ -1891,8 +1942,26 @@
       <c r="H58" s="19">
         <v>622530</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L58" s="37">
+        <v>0</v>
+      </c>
+      <c r="M58" s="37">
+        <v>2</v>
+      </c>
+      <c r="N58" s="37">
+        <v>9</v>
+      </c>
+      <c r="O58" s="37">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="37">
+        <v>1</v>
+      </c>
+      <c r="R58" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>861330</v>
       </c>
@@ -1917,8 +1986,26 @@
       <c r="H59" s="19">
         <v>714846</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L59" s="37">
+        <v>1</v>
+      </c>
+      <c r="M59" s="37">
+        <v>4</v>
+      </c>
+      <c r="N59" s="37">
+        <v>7</v>
+      </c>
+      <c r="O59" s="37">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="37">
+        <v>5</v>
+      </c>
+      <c r="R59" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>528148</v>
       </c>
@@ -1943,8 +2030,26 @@
       <c r="H60" s="21">
         <v>778781</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L60" s="37">
+        <v>5</v>
+      </c>
+      <c r="M60" s="37">
+        <v>4</v>
+      </c>
+      <c r="N60" s="37">
+        <v>9</v>
+      </c>
+      <c r="O60" s="37">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="37">
+        <v>1</v>
+      </c>
+      <c r="R60" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>823552</v>
       </c>
@@ -1969,8 +2074,26 @@
       <c r="H61" s="19">
         <v>551946</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="37">
+        <v>1</v>
+      </c>
+      <c r="M61" s="37">
+        <v>2</v>
+      </c>
+      <c r="N61" s="37">
+        <v>4</v>
+      </c>
+      <c r="O61" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="37">
+        <v>0</v>
+      </c>
+      <c r="R61" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="28">
         <v>284533</v>
       </c>
@@ -1995,8 +2118,26 @@
       <c r="H62" s="20">
         <v>289228</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="37">
+        <v>0</v>
+      </c>
+      <c r="M62" s="37">
+        <v>0</v>
+      </c>
+      <c r="N62" s="37">
+        <v>2</v>
+      </c>
+      <c r="O62" s="37">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="37">
+        <v>9</v>
+      </c>
+      <c r="R62" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
         <v>8</v>
       </c>
@@ -2015,9 +2156,32 @@
       <c r="H63" s="25">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="37">
+        <f>TTEST(L58:L62,M58:M62,1,1)</f>
+        <v>0.11509982054024949</v>
+      </c>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37">
+        <f>TTEST(N58:N62,O58:O62,1,1)</f>
+        <v>7.0178693309497303E-2</v>
+      </c>
+      <c r="O63" s="37"/>
+      <c r="Q63" s="37">
+        <v>7</v>
+      </c>
+      <c r="R63" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q64" s="37">
+        <v>9</v>
+      </c>
+      <c r="R64" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>12</v>
       </c>
@@ -2028,8 +2192,14 @@
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="33"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q65" s="37">
+        <v>4</v>
+      </c>
+      <c r="R65" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
         <v>6</v>
       </c>
@@ -2042,8 +2212,14 @@
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
       <c r="H66" s="24"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q66" s="37">
+        <v>2</v>
+      </c>
+      <c r="R66" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>1</v>
       </c>
@@ -2060,8 +2236,12 @@
         <v>4</v>
       </c>
       <c r="H67" s="21"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q67">
+        <f>TTEST(Q57:Q66,R57:R66,1,1)</f>
+        <v>1.9494949214963884E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>2</v>
       </c>
@@ -2087,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>844618</v>
       </c>
@@ -2113,7 +2293,7 @@
         <v>314964</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>726387</v>
       </c>
@@ -2139,7 +2319,7 @@
         <v>18357</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>543830</v>
       </c>
@@ -2165,7 +2345,7 @@
         <v>634535</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>575573</v>
       </c>
@@ -2191,7 +2371,7 @@
         <v>194595</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>107815</v>
       </c>
@@ -2217,7 +2397,7 @@
         <v>81457</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>942685</v>
       </c>
@@ -2243,7 +2423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>861330</v>
       </c>
@@ -2269,7 +2449,7 @@
         <v>714876</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>528148</v>
       </c>
@@ -2295,7 +2475,7 @@
         <v>778781</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>823552</v>
       </c>
@@ -2321,7 +2501,7 @@
         <v>551944</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28">
         <v>284533</v>
       </c>
@@ -2347,7 +2527,7 @@
         <v>289296</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="30" t="s">
         <v>8</v>
       </c>
@@ -2367,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>13</v>
